--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>847.5138609796022</v>
+        <v>941.2442188208296</v>
       </c>
       <c r="AB2" t="n">
-        <v>1159.605854265008</v>
+        <v>1287.851864954923</v>
       </c>
       <c r="AC2" t="n">
-        <v>1048.934699050993</v>
+        <v>1164.94109047507</v>
       </c>
       <c r="AD2" t="n">
-        <v>847513.8609796022</v>
+        <v>941244.2188208296</v>
       </c>
       <c r="AE2" t="n">
-        <v>1159605.854265008</v>
+        <v>1287851.864954923</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.137705967097764e-06</v>
+        <v>1.923348386026807e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.80864197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>1048934.699050993</v>
+        <v>1164941.09047507</v>
       </c>
     </row>
     <row r="3">
@@ -2358,28 +2358,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>502.7873669781305</v>
+        <v>575.6034155556247</v>
       </c>
       <c r="AB3" t="n">
-        <v>687.9358569126244</v>
+        <v>787.5659869936941</v>
       </c>
       <c r="AC3" t="n">
-        <v>622.2802242529222</v>
+        <v>712.4017945508202</v>
       </c>
       <c r="AD3" t="n">
-        <v>502787.3669781305</v>
+        <v>575603.4155556246</v>
       </c>
       <c r="AE3" t="n">
-        <v>687935.8569126244</v>
+        <v>787565.9869936941</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.599972870222656e-06</v>
+        <v>2.704833521687055e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.6658950617284</v>
       </c>
       <c r="AH3" t="n">
-        <v>622280.2242529221</v>
+        <v>712401.7945508203</v>
       </c>
     </row>
     <row r="4">
@@ -2464,28 +2464,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>421.6441613284778</v>
+        <v>483.9604743553707</v>
       </c>
       <c r="AB4" t="n">
-        <v>576.9121431571853</v>
+        <v>662.1760718422817</v>
       </c>
       <c r="AC4" t="n">
-        <v>521.852457915541</v>
+        <v>598.9789169156074</v>
       </c>
       <c r="AD4" t="n">
-        <v>421644.1613284778</v>
+        <v>483960.4743553707</v>
       </c>
       <c r="AE4" t="n">
-        <v>576912.1431571853</v>
+        <v>662176.0718422816</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.782526807425805e-06</v>
+        <v>3.013450010161836e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.36574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>521852.457915541</v>
+        <v>598978.9169156074</v>
       </c>
     </row>
     <row r="5">
@@ -2570,28 +2570,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.1393073058463</v>
+        <v>434.5408716787596</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.1774178834002</v>
+        <v>594.5579912211459</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.582239755602</v>
+        <v>537.8142110063807</v>
       </c>
       <c r="AD5" t="n">
-        <v>372139.3073058462</v>
+        <v>434540.8716787596</v>
       </c>
       <c r="AE5" t="n">
-        <v>509177.4178834002</v>
+        <v>594557.991221146</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.880736204022436e-06</v>
+        <v>3.17947786788561e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.77160493827161</v>
       </c>
       <c r="AH5" t="n">
-        <v>460582.239755602</v>
+        <v>537814.2110063806</v>
       </c>
     </row>
     <row r="6">
@@ -2676,28 +2676,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>364.5143714405556</v>
+        <v>426.915935813469</v>
       </c>
       <c r="AB6" t="n">
-        <v>498.7446442440802</v>
+        <v>584.1252175818261</v>
       </c>
       <c r="AC6" t="n">
-        <v>451.145155389929</v>
+        <v>528.3771266407077</v>
       </c>
       <c r="AD6" t="n">
-        <v>364514.3714405556</v>
+        <v>426915.935813469</v>
       </c>
       <c r="AE6" t="n">
-        <v>498744.6442440802</v>
+        <v>584125.217581826</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.898592457949096e-06</v>
+        <v>3.209664751108115e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.6712962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>451145.155389929</v>
+        <v>528377.1266407077</v>
       </c>
     </row>
   </sheetData>
@@ -2973,28 +2973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>639.5382969763778</v>
+        <v>720.2628397272588</v>
       </c>
       <c r="AB2" t="n">
-        <v>875.0445123614684</v>
+        <v>985.4953930687047</v>
       </c>
       <c r="AC2" t="n">
-        <v>791.5314922343757</v>
+        <v>891.4410959056981</v>
       </c>
       <c r="AD2" t="n">
-        <v>639538.2969763777</v>
+        <v>720262.8397272588</v>
       </c>
       <c r="AE2" t="n">
-        <v>875044.5123614684</v>
+        <v>985495.3930687048</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.348459275028224e-06</v>
+        <v>2.335249646451052e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.54398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>791531.4922343757</v>
+        <v>891441.0959056981</v>
       </c>
     </row>
     <row r="3">
@@ -3079,28 +3079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>406.9130560025798</v>
+        <v>467.4564630657406</v>
       </c>
       <c r="AB3" t="n">
-        <v>556.7563949597916</v>
+        <v>639.5945554902188</v>
       </c>
       <c r="AC3" t="n">
-        <v>503.6203460373363</v>
+        <v>578.5525487908283</v>
       </c>
       <c r="AD3" t="n">
-        <v>406913.0560025798</v>
+        <v>467456.4630657407</v>
       </c>
       <c r="AE3" t="n">
-        <v>556756.3949597916</v>
+        <v>639594.5554902188</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.783149954299007e-06</v>
+        <v>3.088043055848911e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.7554012345679</v>
       </c>
       <c r="AH3" t="n">
-        <v>503620.3460373363</v>
+        <v>578552.5487908283</v>
       </c>
     </row>
     <row r="4">
@@ -3185,28 +3185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>342.1006986493253</v>
+        <v>402.5587648579145</v>
       </c>
       <c r="AB4" t="n">
-        <v>468.0772683096629</v>
+        <v>550.7986617178926</v>
       </c>
       <c r="AC4" t="n">
-        <v>423.40463077276</v>
+        <v>498.2312104943131</v>
       </c>
       <c r="AD4" t="n">
-        <v>342100.6986493253</v>
+        <v>402558.7648579145</v>
       </c>
       <c r="AE4" t="n">
-        <v>468077.2683096629</v>
+        <v>550798.6617178926</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.942389846930261e-06</v>
+        <v>3.36381326994029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.7908950617284</v>
       </c>
       <c r="AH4" t="n">
-        <v>423404.63077276</v>
+        <v>498231.2104943132</v>
       </c>
     </row>
     <row r="5">
@@ -3291,28 +3291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>339.3235715787264</v>
+        <v>399.7816377873156</v>
       </c>
       <c r="AB5" t="n">
-        <v>464.2774805334701</v>
+        <v>546.9988739416997</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.9674894088914</v>
+        <v>494.7940691304445</v>
       </c>
       <c r="AD5" t="n">
-        <v>339323.5715787264</v>
+        <v>399781.6377873156</v>
       </c>
       <c r="AE5" t="n">
-        <v>464277.4805334701</v>
+        <v>546998.8739416997</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.95032196031278e-06</v>
+        <v>3.377550032566473e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.74845679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>419967.4894088914</v>
+        <v>494794.0691304445</v>
       </c>
     </row>
   </sheetData>
@@ -3588,28 +3588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.2592447592255</v>
+        <v>347.9514384355177</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.2502363643561</v>
+        <v>476.0825086015537</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.9554769639849</v>
+        <v>430.6458621666181</v>
       </c>
       <c r="AD2" t="n">
-        <v>293259.2447592255</v>
+        <v>347951.4384355177</v>
       </c>
       <c r="AE2" t="n">
-        <v>401250.2363643561</v>
+        <v>476082.5086015537</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.023503071791261e-06</v>
+        <v>3.828903248887585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.55864197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>362955.4769639849</v>
+        <v>430645.8621666181</v>
       </c>
     </row>
     <row r="3">
@@ -3694,28 +3694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>291.9277032804292</v>
+        <v>346.4493047561292</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.4283625696029</v>
+        <v>474.0272230319536</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.3074802471871</v>
+        <v>428.7867301671692</v>
       </c>
       <c r="AD3" t="n">
-        <v>291927.7032804292</v>
+        <v>346449.3047561292</v>
       </c>
       <c r="AE3" t="n">
-        <v>399428.362569603</v>
+        <v>474027.2230319536</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03684032015228e-06</v>
+        <v>3.854140192825367e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.48148148148148</v>
       </c>
       <c r="AH3" t="n">
-        <v>361307.4802471871</v>
+        <v>428786.7301671692</v>
       </c>
     </row>
   </sheetData>
@@ -3991,28 +3991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.9118997676792</v>
+        <v>458.3029743659148</v>
       </c>
       <c r="AB2" t="n">
-        <v>536.231151194895</v>
+        <v>627.0703484276961</v>
       </c>
       <c r="AC2" t="n">
-        <v>485.054002730001</v>
+        <v>567.2236344725177</v>
       </c>
       <c r="AD2" t="n">
-        <v>391911.8997676792</v>
+        <v>458302.9743659148</v>
       </c>
       <c r="AE2" t="n">
-        <v>536231.151194895</v>
+        <v>627070.3484276962</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.764266290409002e-06</v>
+        <v>3.214110026981591e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.68132716049383</v>
       </c>
       <c r="AH2" t="n">
-        <v>485054.002730001</v>
+        <v>567223.6344725176</v>
       </c>
     </row>
     <row r="3">
@@ -4097,28 +4097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>310.2879230862206</v>
+        <v>357.7711664896339</v>
       </c>
       <c r="AB3" t="n">
-        <v>424.5496253036179</v>
+        <v>489.5182937410225</v>
       </c>
       <c r="AC3" t="n">
-        <v>384.0312049237813</v>
+        <v>442.7993548296189</v>
       </c>
       <c r="AD3" t="n">
-        <v>310287.9230862206</v>
+        <v>357771.1664896338</v>
       </c>
       <c r="AE3" t="n">
-        <v>424549.6253036179</v>
+        <v>489518.2937410225</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.025600409560316e-06</v>
+        <v>3.690204036895433e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.04552469135803</v>
       </c>
       <c r="AH3" t="n">
-        <v>384031.2049237813</v>
+        <v>442799.3548296189</v>
       </c>
     </row>
   </sheetData>
@@ -4394,28 +4394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>286.5878332384913</v>
+        <v>339.3184816948746</v>
       </c>
       <c r="AB2" t="n">
-        <v>392.1221167997836</v>
+        <v>464.2705163298342</v>
       </c>
       <c r="AC2" t="n">
-        <v>354.6985323192588</v>
+        <v>419.9611898590762</v>
       </c>
       <c r="AD2" t="n">
-        <v>286587.8332384913</v>
+        <v>339318.4816948746</v>
       </c>
       <c r="AE2" t="n">
-        <v>392122.1167997835</v>
+        <v>464270.5163298342</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.010030035959652e-06</v>
+        <v>3.939011237863303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.08333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>354698.5323192588</v>
+        <v>419961.1898590762</v>
       </c>
     </row>
   </sheetData>
@@ -4691,28 +4691,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>692.1576087946236</v>
+        <v>773.4780093687317</v>
       </c>
       <c r="AB2" t="n">
-        <v>947.0405761913933</v>
+        <v>1058.306735859761</v>
       </c>
       <c r="AC2" t="n">
-        <v>856.6563527794827</v>
+        <v>957.3034263321373</v>
       </c>
       <c r="AD2" t="n">
-        <v>692157.6087946235</v>
+        <v>773478.0093687318</v>
       </c>
       <c r="AE2" t="n">
-        <v>947040.5761913933</v>
+        <v>1058306.735859761</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.292573018284591e-06</v>
+        <v>2.223847587007862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.06867283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>856656.3527794827</v>
+        <v>957303.4263321373</v>
       </c>
     </row>
     <row r="3">
@@ -4797,28 +4797,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>428.1434644151899</v>
+        <v>499.2027281361593</v>
       </c>
       <c r="AB3" t="n">
-        <v>585.8047763694404</v>
+        <v>683.031195905935</v>
       </c>
       <c r="AC3" t="n">
-        <v>529.8963906949078</v>
+        <v>617.8436572089761</v>
       </c>
       <c r="AD3" t="n">
-        <v>428143.4644151899</v>
+        <v>499202.7281361593</v>
       </c>
       <c r="AE3" t="n">
-        <v>585804.7763694405</v>
+        <v>683031.195905935</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.733481105373045e-06</v>
+        <v>2.982421664985426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.98302469135802</v>
       </c>
       <c r="AH3" t="n">
-        <v>529896.3906949079</v>
+        <v>617843.6572089761</v>
       </c>
     </row>
     <row r="4">
@@ -4903,28 +4903,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>358.5881812794507</v>
+        <v>419.5570793649756</v>
       </c>
       <c r="AB4" t="n">
-        <v>490.6361694205984</v>
+        <v>574.0565055391635</v>
       </c>
       <c r="AC4" t="n">
-        <v>443.8105420232844</v>
+        <v>519.2693583438707</v>
       </c>
       <c r="AD4" t="n">
-        <v>358588.1812794507</v>
+        <v>419557.0793649756</v>
       </c>
       <c r="AE4" t="n">
-        <v>490636.1694205984</v>
+        <v>574056.5055391635</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.903674103698433e-06</v>
+        <v>3.275235520216477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.9104938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>443810.5420232844</v>
+        <v>519269.3583438707</v>
       </c>
     </row>
     <row r="5">
@@ -5009,28 +5009,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>345.7849465458586</v>
+        <v>406.7538446313835</v>
       </c>
       <c r="AB5" t="n">
-        <v>473.1182188192457</v>
+        <v>556.5385549378108</v>
       </c>
       <c r="AC5" t="n">
-        <v>427.9644800407266</v>
+        <v>503.423296361313</v>
       </c>
       <c r="AD5" t="n">
-        <v>345784.9465458586</v>
+        <v>406753.8446313835</v>
       </c>
       <c r="AE5" t="n">
-        <v>473118.2188192457</v>
+        <v>556538.5549378108</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.936894312482604e-06</v>
+        <v>3.332390265131871e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.72530864197531</v>
       </c>
       <c r="AH5" t="n">
-        <v>427964.4800407266</v>
+        <v>503423.296361313</v>
       </c>
     </row>
   </sheetData>
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.9529166361027</v>
+        <v>341.1899041619801</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.4121753094199</v>
+        <v>466.8310791106603</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.7244168237647</v>
+        <v>422.2773761218726</v>
       </c>
       <c r="AD2" t="n">
-        <v>280952.9166361027</v>
+        <v>341189.90416198</v>
       </c>
       <c r="AE2" t="n">
-        <v>384412.1753094199</v>
+        <v>466831.0791106602</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.966690071321131e-06</v>
+        <v>3.942545659042156e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.63888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>347724.4168237647</v>
+        <v>422277.3761218726</v>
       </c>
     </row>
   </sheetData>
@@ -5603,28 +5603,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.0874973247026</v>
+        <v>581.7020081888866</v>
       </c>
       <c r="AB2" t="n">
-        <v>702.0289496624845</v>
+        <v>795.9103504854415</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.0282920105154</v>
+        <v>719.949783702303</v>
       </c>
       <c r="AD2" t="n">
-        <v>513087.4973247026</v>
+        <v>581702.0081888866</v>
       </c>
       <c r="AE2" t="n">
-        <v>702028.9496624845</v>
+        <v>795910.3504854415</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.538115816420865e-06</v>
+        <v>2.724117403499314e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.03935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>635028.2920105155</v>
+        <v>719949.783702303</v>
       </c>
     </row>
     <row r="3">
@@ -5709,28 +5709,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>344.8118092137623</v>
+        <v>393.8831574438881</v>
       </c>
       <c r="AB3" t="n">
-        <v>471.7867293896824</v>
+        <v>538.928312913235</v>
       </c>
       <c r="AC3" t="n">
-        <v>426.7600660935637</v>
+        <v>487.4937511194329</v>
       </c>
       <c r="AD3" t="n">
-        <v>344811.8092137623</v>
+        <v>393883.1574438881</v>
       </c>
       <c r="AE3" t="n">
-        <v>471786.7293896824</v>
+        <v>538928.312913235</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.940641139802569e-06</v>
+        <v>3.437019661617211e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.12654320987654</v>
       </c>
       <c r="AH3" t="n">
-        <v>426760.0660935637</v>
+        <v>487493.751119433</v>
       </c>
     </row>
     <row r="4">
@@ -5815,28 +5815,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>319.8643660853043</v>
+        <v>378.6645356966224</v>
       </c>
       <c r="AB4" t="n">
-        <v>437.6525370978119</v>
+        <v>518.1055232404195</v>
       </c>
       <c r="AC4" t="n">
-        <v>395.8835932063897</v>
+        <v>468.6582592680222</v>
       </c>
       <c r="AD4" t="n">
-        <v>319864.3660853042</v>
+        <v>378664.5356966223</v>
       </c>
       <c r="AE4" t="n">
-        <v>437652.5370978119</v>
+        <v>518105.5232404196</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.991747469971877e-06</v>
+        <v>3.527532769900014e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.84104938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>395883.5932063897</v>
+        <v>468658.2592680221</v>
       </c>
     </row>
   </sheetData>
@@ -6112,28 +6112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>599.5022288477286</v>
+        <v>669.5176602130591</v>
       </c>
       <c r="AB2" t="n">
-        <v>820.2653976811815</v>
+        <v>916.0635997380575</v>
       </c>
       <c r="AC2" t="n">
-        <v>741.980419376205</v>
+        <v>828.6357754823938</v>
       </c>
       <c r="AD2" t="n">
-        <v>599502.2288477286</v>
+        <v>669517.6602130592</v>
       </c>
       <c r="AE2" t="n">
-        <v>820265.3976811816</v>
+        <v>916063.5997380575</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.407173246952378e-06</v>
+        <v>2.45398726943663e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.03858024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>741980.419376205</v>
+        <v>828635.7754823938</v>
       </c>
     </row>
     <row r="3">
@@ -6218,28 +6218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>387.3314984633935</v>
+        <v>447.3446486263474</v>
       </c>
       <c r="AB3" t="n">
-        <v>529.9640440573276</v>
+        <v>612.0766837036084</v>
       </c>
       <c r="AC3" t="n">
-        <v>479.3850195017029</v>
+        <v>553.6609440659563</v>
       </c>
       <c r="AD3" t="n">
-        <v>387331.4984633935</v>
+        <v>447344.6486263474</v>
       </c>
       <c r="AE3" t="n">
-        <v>529964.0440573276</v>
+        <v>612076.6837036085</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.829758501181948e-06</v>
+        <v>3.190939053004827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>479385.0195017029</v>
+        <v>553660.9440659563</v>
       </c>
     </row>
     <row r="4">
@@ -6324,28 +6324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>333.5592837067753</v>
+        <v>393.4870930151575</v>
       </c>
       <c r="AB4" t="n">
-        <v>456.3905275646334</v>
+        <v>538.3864000887166</v>
       </c>
       <c r="AC4" t="n">
-        <v>412.8332561619925</v>
+        <v>487.003557694307</v>
       </c>
       <c r="AD4" t="n">
-        <v>333559.2837067753</v>
+        <v>393487.0930151575</v>
       </c>
       <c r="AE4" t="n">
-        <v>456390.5275646334</v>
+        <v>538386.4000887166</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.961442757561597e-06</v>
+        <v>3.420584897566442e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.78703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>412833.2561619925</v>
+        <v>487003.557694307</v>
       </c>
     </row>
     <row r="5">
@@ -6430,28 +6430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.2244029912833</v>
+        <v>393.1522122996655</v>
       </c>
       <c r="AB5" t="n">
-        <v>455.9323289958027</v>
+        <v>537.9282015198858</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.4187874214853</v>
+        <v>486.5890889537998</v>
       </c>
       <c r="AD5" t="n">
-        <v>333224.4029912833</v>
+        <v>393152.2122996654</v>
       </c>
       <c r="AE5" t="n">
-        <v>455932.3289958027</v>
+        <v>537928.2015198858</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.96665308840544e-06</v>
+        <v>3.42967125959616e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.76003086419753</v>
       </c>
       <c r="AH5" t="n">
-        <v>412418.7874214852</v>
+        <v>486589.0889537998</v>
       </c>
     </row>
   </sheetData>
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>797.5553968868793</v>
+        <v>890.4216326009312</v>
       </c>
       <c r="AB2" t="n">
-        <v>1091.25047968146</v>
+        <v>1218.314160354596</v>
       </c>
       <c r="AC2" t="n">
-        <v>987.1030654803284</v>
+        <v>1102.039966805016</v>
       </c>
       <c r="AD2" t="n">
-        <v>797555.3968868793</v>
+        <v>890421.6326009312</v>
       </c>
       <c r="AE2" t="n">
-        <v>1091250.47968146</v>
+        <v>1218314.160354596</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.185657488633945e-06</v>
+        <v>2.015539149592906e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.22608024691358</v>
       </c>
       <c r="AH2" t="n">
-        <v>987103.0654803284</v>
+        <v>1102039.966805016</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>481.5113037990611</v>
+        <v>543.4506043961367</v>
       </c>
       <c r="AB3" t="n">
-        <v>658.8250086373598</v>
+        <v>743.5730922833659</v>
       </c>
       <c r="AC3" t="n">
-        <v>595.9476744797166</v>
+        <v>672.6075199672302</v>
       </c>
       <c r="AD3" t="n">
-        <v>481511.3037990611</v>
+        <v>543450.6043961367</v>
       </c>
       <c r="AE3" t="n">
-        <v>658825.0086373598</v>
+        <v>743573.0922833659</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.641826197816367e-06</v>
+        <v>2.790995721992873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.43827160493827</v>
       </c>
       <c r="AH3" t="n">
-        <v>595947.6744797166</v>
+        <v>672607.5199672303</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>405.1538638608705</v>
+        <v>467.0078236033744</v>
       </c>
       <c r="AB4" t="n">
-        <v>554.349390661425</v>
+        <v>638.9807071852333</v>
       </c>
       <c r="AC4" t="n">
-        <v>501.443062850954</v>
+        <v>577.997285306529</v>
       </c>
       <c r="AD4" t="n">
-        <v>405153.8638608705</v>
+        <v>467007.8236033744</v>
       </c>
       <c r="AE4" t="n">
-        <v>554349.390661425</v>
+        <v>638980.7071852334</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.816787040783514e-06</v>
+        <v>3.088417559265926e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.24228395061728</v>
       </c>
       <c r="AH4" t="n">
-        <v>501443.0628509541</v>
+        <v>577997.2853065289</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>359.6393395230803</v>
+        <v>421.5785506116048</v>
       </c>
       <c r="AB5" t="n">
-        <v>492.0744105033613</v>
+        <v>576.822371679819</v>
       </c>
       <c r="AC5" t="n">
-        <v>445.1115193956924</v>
+        <v>521.7712541019796</v>
       </c>
       <c r="AD5" t="n">
-        <v>359639.3395230803</v>
+        <v>421578.5506116048</v>
       </c>
       <c r="AE5" t="n">
-        <v>492074.4105033613</v>
+        <v>576822.371679819</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.907311410367121e-06</v>
+        <v>3.242302987930651e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.70987654320988</v>
       </c>
       <c r="AH5" t="n">
-        <v>445111.5193956924</v>
+        <v>521771.2541019795</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>358.0160911337692</v>
+        <v>419.9553022222938</v>
       </c>
       <c r="AB6" t="n">
-        <v>489.8534104444411</v>
+        <v>574.6013716208988</v>
       </c>
       <c r="AC6" t="n">
-        <v>443.1024884652025</v>
+        <v>519.7622231714896</v>
       </c>
       <c r="AD6" t="n">
-        <v>358016.0911337693</v>
+        <v>419955.3022222938</v>
       </c>
       <c r="AE6" t="n">
-        <v>489853.4104444411</v>
+        <v>574601.3716208988</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.913505183022842e-06</v>
+        <v>3.252831990944554e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.67515432098766</v>
       </c>
       <c r="AH6" t="n">
-        <v>443102.4884652025</v>
+        <v>519762.2231714897</v>
       </c>
     </row>
   </sheetData>
@@ -7448,28 +7448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>433.6255398543882</v>
+        <v>491.2745075298632</v>
       </c>
       <c r="AB2" t="n">
-        <v>593.3055938374508</v>
+        <v>672.1834547039929</v>
       </c>
       <c r="AC2" t="n">
-        <v>536.6813406712348</v>
+        <v>608.0312092024471</v>
       </c>
       <c r="AD2" t="n">
-        <v>433625.5398543882</v>
+        <v>491274.5075298632</v>
       </c>
       <c r="AE2" t="n">
-        <v>593305.5938374508</v>
+        <v>672183.4547039929</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.685601976295474e-06</v>
+        <v>3.039539244015434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.10956790123457</v>
       </c>
       <c r="AH2" t="n">
-        <v>536681.3406712348</v>
+        <v>608031.2092024471</v>
       </c>
     </row>
     <row r="3">
@@ -7554,28 +7554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>307.1038961956448</v>
+        <v>364.6674335079971</v>
       </c>
       <c r="AB3" t="n">
-        <v>420.1930992425795</v>
+        <v>498.9540705173756</v>
       </c>
       <c r="AC3" t="n">
-        <v>380.0904595955857</v>
+        <v>451.3345943136327</v>
       </c>
       <c r="AD3" t="n">
-        <v>307103.8961956448</v>
+        <v>364667.4335079971</v>
       </c>
       <c r="AE3" t="n">
-        <v>420193.0992425795</v>
+        <v>498954.0705173755</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.013307008517637e-06</v>
+        <v>3.630468965211965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.97608024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>380090.4595955857</v>
+        <v>451334.5943136327</v>
       </c>
     </row>
     <row r="4">
@@ -7660,28 +7660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.4430069177671</v>
+        <v>366.0065442301195</v>
       </c>
       <c r="AB4" t="n">
-        <v>422.0253296099829</v>
+        <v>500.7863008847789</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.7478244682757</v>
+        <v>452.9919591863226</v>
       </c>
       <c r="AD4" t="n">
-        <v>308443.0069177672</v>
+        <v>366006.5442301194</v>
       </c>
       <c r="AE4" t="n">
-        <v>422025.3296099829</v>
+        <v>500786.3008847789</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.014853327264579e-06</v>
+        <v>3.633257343833479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.96450617283951</v>
       </c>
       <c r="AH4" t="n">
-        <v>381747.8244682756</v>
+        <v>452991.9591863226</v>
       </c>
     </row>
   </sheetData>
@@ -7957,28 +7957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.7258048542686</v>
+        <v>373.236127851126</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.7264632748461</v>
+        <v>510.6781361417592</v>
       </c>
       <c r="AC2" t="n">
-        <v>393.2367797623172</v>
+        <v>461.9397315696547</v>
       </c>
       <c r="AD2" t="n">
-        <v>317725.8048542686</v>
+        <v>373236.127851126</v>
       </c>
       <c r="AE2" t="n">
-        <v>434726.4632748461</v>
+        <v>510678.1361417592</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.950739441109587e-06</v>
+        <v>3.639456257414623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.79783950617284</v>
       </c>
       <c r="AH2" t="n">
-        <v>393236.7797623172</v>
+        <v>461939.7315696547</v>
       </c>
     </row>
     <row r="3">
@@ -8063,28 +8063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.1780919549079</v>
+        <v>353.5178227511731</v>
       </c>
       <c r="AB3" t="n">
-        <v>407.9804201017118</v>
+        <v>483.698681193778</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.0433414113194</v>
+        <v>437.5351579360059</v>
       </c>
       <c r="AD3" t="n">
-        <v>298178.0919549079</v>
+        <v>353517.8227511731</v>
       </c>
       <c r="AE3" t="n">
-        <v>407980.4201017118</v>
+        <v>483698.6811937781</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.03581098589757e-06</v>
+        <v>3.798172567487508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.30401234567901</v>
       </c>
       <c r="AH3" t="n">
-        <v>369043.3414113194</v>
+        <v>437535.1579360059</v>
       </c>
     </row>
   </sheetData>
@@ -13869,28 +13869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>284.2892181460892</v>
+        <v>338.0901540250454</v>
       </c>
       <c r="AB2" t="n">
-        <v>388.9770502226181</v>
+        <v>462.5898642219815</v>
       </c>
       <c r="AC2" t="n">
-        <v>351.8536264820894</v>
+        <v>418.440936829587</v>
       </c>
       <c r="AD2" t="n">
-        <v>284289.2181460892</v>
+        <v>338090.1540250454</v>
       </c>
       <c r="AE2" t="n">
-        <v>388977.0502226181</v>
+        <v>462589.8642219816</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.027207073057314e-06</v>
+        <v>3.898394377641152e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.74382716049383</v>
       </c>
       <c r="AH2" t="n">
-        <v>351853.6264820894</v>
+        <v>418440.936829587</v>
       </c>
     </row>
     <row r="3">
@@ -13975,28 +13975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.3810992036612</v>
+        <v>339.1820350826174</v>
       </c>
       <c r="AB3" t="n">
-        <v>390.4710100559806</v>
+        <v>464.0838240553442</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.2050048857417</v>
+        <v>419.7923152332393</v>
       </c>
       <c r="AD3" t="n">
-        <v>285381.0992036612</v>
+        <v>339182.0350826174</v>
       </c>
       <c r="AE3" t="n">
-        <v>390471.0100559806</v>
+        <v>464083.8240553442</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.030477856791128e-06</v>
+        <v>3.904684216053737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.72453703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>353205.0048857417</v>
+        <v>419792.3152332393</v>
       </c>
     </row>
   </sheetData>
@@ -14272,28 +14272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>285.2972124281656</v>
+        <v>344.111679678884</v>
       </c>
       <c r="AB2" t="n">
-        <v>390.3562324689242</v>
+        <v>470.8287812725268</v>
       </c>
       <c r="AC2" t="n">
-        <v>353.1011815105026</v>
+        <v>425.8935432002209</v>
       </c>
       <c r="AD2" t="n">
-        <v>285297.2124281656</v>
+        <v>344111.679678884</v>
       </c>
       <c r="AE2" t="n">
-        <v>390356.2324689243</v>
+        <v>470828.7812725268</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.874368061146307e-06</v>
+        <v>3.866070290904371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.63425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>353101.1815105026</v>
+        <v>425893.5432002209</v>
       </c>
     </row>
   </sheetData>
@@ -14569,28 +14569,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>549.0918861204518</v>
+        <v>618.5488087663352</v>
       </c>
       <c r="AB2" t="n">
-        <v>751.2917428143588</v>
+        <v>846.3257686016215</v>
       </c>
       <c r="AC2" t="n">
-        <v>679.5895133247392</v>
+        <v>765.5536250719585</v>
       </c>
       <c r="AD2" t="n">
-        <v>549091.8861204518</v>
+        <v>618548.8087663352</v>
       </c>
       <c r="AE2" t="n">
-        <v>751291.7428143588</v>
+        <v>846325.7686016215</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.473124222585961e-06</v>
+        <v>2.588221147609581e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.50617283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>679589.5133247392</v>
+        <v>765553.6250719585</v>
       </c>
     </row>
     <row r="3">
@@ -14675,28 +14675,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>366.6312794770175</v>
+        <v>425.9220430975496</v>
       </c>
       <c r="AB3" t="n">
-        <v>501.6410912109588</v>
+        <v>582.7653297204531</v>
       </c>
       <c r="AC3" t="n">
-        <v>453.7651695234775</v>
+        <v>527.1470245682096</v>
       </c>
       <c r="AD3" t="n">
-        <v>366631.2794770175</v>
+        <v>425922.0430975496</v>
       </c>
       <c r="AE3" t="n">
-        <v>501641.0912109588</v>
+        <v>582765.3297204531</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.883033196306954e-06</v>
+        <v>3.308415044440103e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.35030864197531</v>
       </c>
       <c r="AH3" t="n">
-        <v>453765.1695234776</v>
+        <v>527147.0245682097</v>
       </c>
     </row>
     <row r="4">
@@ -14781,28 +14781,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>325.8258832280777</v>
+        <v>385.2018981946304</v>
       </c>
       <c r="AB4" t="n">
-        <v>445.8093478561292</v>
+        <v>527.0502310182729</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.2619293940889</v>
+        <v>476.7492966895333</v>
       </c>
       <c r="AD4" t="n">
-        <v>325825.8832280777</v>
+        <v>385201.8981946304</v>
       </c>
       <c r="AE4" t="n">
-        <v>445809.3478561292</v>
+        <v>527050.2310182729</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.981023598268094e-06</v>
+        <v>3.480580315182426e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.78703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>403261.9293940889</v>
+        <v>476749.2966895333</v>
       </c>
     </row>
   </sheetData>
@@ -15078,28 +15078,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>737.5780642615207</v>
+        <v>829.8138843586892</v>
       </c>
       <c r="AB2" t="n">
-        <v>1009.186847170276</v>
+        <v>1135.387965384417</v>
       </c>
       <c r="AC2" t="n">
-        <v>912.8714708789796</v>
+        <v>1027.028131495146</v>
       </c>
       <c r="AD2" t="n">
-        <v>737578.0642615207</v>
+        <v>829813.8843586892</v>
       </c>
       <c r="AE2" t="n">
-        <v>1009186.847170276</v>
+        <v>1135387.965384417</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.238649444253941e-06</v>
+        <v>2.117952511612961e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.62808641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>912871.4708789797</v>
+        <v>1027028.131495146</v>
       </c>
     </row>
     <row r="3">
@@ -15184,28 +15184,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>460.8342802703326</v>
+        <v>522.2964695588055</v>
       </c>
       <c r="AB3" t="n">
-        <v>630.5337928394556</v>
+        <v>714.629071744366</v>
       </c>
       <c r="AC3" t="n">
-        <v>570.3565326105936</v>
+        <v>646.4258761252845</v>
       </c>
       <c r="AD3" t="n">
-        <v>460834.2802703326</v>
+        <v>522296.4695588055</v>
       </c>
       <c r="AE3" t="n">
-        <v>630533.7928394557</v>
+        <v>714629.071744366</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.683986755756231e-06</v>
+        <v>2.879429684825066e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>12.22993827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>570356.5326105936</v>
+        <v>646425.8761252845</v>
       </c>
     </row>
     <row r="4">
@@ -15290,28 +15290,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>386.7640561757883</v>
+        <v>438.0536795464172</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.1876444856392</v>
+        <v>599.3643699198207</v>
       </c>
       <c r="AC4" t="n">
-        <v>478.6827184154529</v>
+        <v>542.1618756678488</v>
       </c>
       <c r="AD4" t="n">
-        <v>386764.0561757883</v>
+        <v>438053.6795464172</v>
       </c>
       <c r="AE4" t="n">
-        <v>529187.6444856392</v>
+        <v>599364.3699198207</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.859281941058103e-06</v>
+        <v>3.179164916375895e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>12</v>
+        <v>11.07638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>478682.7184154529</v>
+        <v>542161.8756678487</v>
       </c>
     </row>
     <row r="5">
@@ -15396,28 +15396,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>351.1797276840927</v>
+        <v>412.6418274640144</v>
       </c>
       <c r="AB5" t="n">
-        <v>480.4995963735242</v>
+        <v>564.594752808886</v>
       </c>
       <c r="AC5" t="n">
-        <v>434.6413892810533</v>
+        <v>510.7106220145176</v>
       </c>
       <c r="AD5" t="n">
-        <v>351179.7276840927</v>
+        <v>412641.8274640144</v>
       </c>
       <c r="AE5" t="n">
-        <v>480499.5963735242</v>
+        <v>564594.752808886</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.925044324825432e-06</v>
+        <v>3.291611263900444e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>11</v>
+        <v>10.6983024691358</v>
       </c>
       <c r="AH5" t="n">
-        <v>434641.3892810533</v>
+        <v>510710.6220145177</v>
       </c>
     </row>
     <row r="6">
@@ -15502,28 +15502,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>352.3647003967625</v>
+        <v>413.8268001766842</v>
       </c>
       <c r="AB6" t="n">
-        <v>482.1209283163055</v>
+        <v>566.2160847516674</v>
       </c>
       <c r="AC6" t="n">
-        <v>436.1079835787692</v>
+        <v>512.1772163122336</v>
       </c>
       <c r="AD6" t="n">
-        <v>352364.7003967625</v>
+        <v>413826.8001766842</v>
       </c>
       <c r="AE6" t="n">
-        <v>482120.9283163055</v>
+        <v>566216.0847516673</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.924777432034169e-06</v>
+        <v>3.291154906970556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>10.6983024691358</v>
       </c>
       <c r="AH6" t="n">
-        <v>436107.9835787692</v>
+        <v>512177.2163122336</v>
       </c>
     </row>
   </sheetData>
@@ -15799,28 +15799,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.2990628163071</v>
+        <v>366.4024905502851</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.250670121795</v>
+        <v>501.3280521079483</v>
       </c>
       <c r="AC2" t="n">
-        <v>372.9060447628195</v>
+        <v>453.4820064331053</v>
       </c>
       <c r="AD2" t="n">
-        <v>301299.0628163071</v>
+        <v>366402.4905502851</v>
       </c>
       <c r="AE2" t="n">
-        <v>412250.670121795</v>
+        <v>501328.0521079483</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.673486428158022e-06</v>
+        <v>3.587052207428765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.81404320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>372906.0447628195</v>
+        <v>453482.0064331053</v>
       </c>
     </row>
   </sheetData>
@@ -16096,28 +16096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>359.5363082499267</v>
+        <v>415.7205207543825</v>
       </c>
       <c r="AB2" t="n">
-        <v>491.9334385700135</v>
+        <v>568.8071567911296</v>
       </c>
       <c r="AC2" t="n">
-        <v>444.984001625808</v>
+        <v>514.521000072842</v>
       </c>
       <c r="AD2" t="n">
-        <v>359536.3082499267</v>
+        <v>415720.5207543825</v>
       </c>
       <c r="AE2" t="n">
-        <v>491933.4385700135</v>
+        <v>568807.1567911296</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.852054256085256e-06</v>
+        <v>3.412285018189361e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.24537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>444984.001625808</v>
+        <v>514521.000072842</v>
       </c>
     </row>
     <row r="3">
@@ -16202,28 +16202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>303.7351169048645</v>
+        <v>350.6264262888125</v>
       </c>
       <c r="AB3" t="n">
-        <v>415.5837867968806</v>
+        <v>479.7425449945669</v>
       </c>
       <c r="AC3" t="n">
-        <v>375.9210534604937</v>
+        <v>433.9565898231755</v>
       </c>
       <c r="AD3" t="n">
-        <v>303735.1169048645</v>
+        <v>350626.4262888125</v>
       </c>
       <c r="AE3" t="n">
-        <v>415583.7867968807</v>
+        <v>479742.5449945669</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.034355559034736e-06</v>
+        <v>3.748162869935338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>11.14969135802469</v>
       </c>
       <c r="AH3" t="n">
-        <v>375921.0534604937</v>
+        <v>433956.5898231755</v>
       </c>
     </row>
   </sheetData>
@@ -16499,28 +16499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>468.6999805009734</v>
+        <v>536.69633018729</v>
       </c>
       <c r="AB2" t="n">
-        <v>641.2959909052217</v>
+        <v>734.3315963332739</v>
       </c>
       <c r="AC2" t="n">
-        <v>580.091601597803</v>
+        <v>664.2480194200941</v>
       </c>
       <c r="AD2" t="n">
-        <v>468699.9805009734</v>
+        <v>536696.33018729</v>
       </c>
       <c r="AE2" t="n">
-        <v>641295.9909052218</v>
+        <v>734331.5963332739</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607161390482184e-06</v>
+        <v>2.87107653622154e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.58796296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>580091.6015978029</v>
+        <v>664248.0194200941</v>
       </c>
     </row>
     <row r="3">
@@ -16605,28 +16605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>318.0335709876557</v>
+        <v>376.2308155784983</v>
       </c>
       <c r="AB3" t="n">
-        <v>435.1475624762298</v>
+        <v>514.7756000066483</v>
       </c>
       <c r="AC3" t="n">
-        <v>393.6176898469374</v>
+        <v>465.6461392341052</v>
       </c>
       <c r="AD3" t="n">
-        <v>318033.5709876557</v>
+        <v>376230.8155784983</v>
       </c>
       <c r="AE3" t="n">
-        <v>435147.5624762299</v>
+        <v>514775.6000066483</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.987174828612045e-06</v>
+        <v>3.549942810713225e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.98765432098766</v>
       </c>
       <c r="AH3" t="n">
-        <v>393617.6898469374</v>
+        <v>465646.1392341052</v>
       </c>
     </row>
     <row r="4">
@@ -16711,28 +16711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>313.8595390007839</v>
+        <v>372.0567835916265</v>
       </c>
       <c r="AB4" t="n">
-        <v>429.4364677664969</v>
+        <v>509.0645052969153</v>
       </c>
       <c r="AC4" t="n">
-        <v>388.4516540007296</v>
+        <v>460.4801033878975</v>
       </c>
       <c r="AD4" t="n">
-        <v>313859.5390007839</v>
+        <v>372056.7835916265</v>
       </c>
       <c r="AE4" t="n">
-        <v>429436.4677664969</v>
+        <v>509064.5052969153</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.003249272524598e-06</v>
+        <v>3.578658631677723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>11</v>
+        <v>10.89891975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>388451.6540007296</v>
+        <v>460480.1033878975</v>
       </c>
     </row>
   </sheetData>
